--- a/Test_Data_Visualization.xlsx
+++ b/Test_Data_Visualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oomsin\Documents\GitHub\SMILE_to_Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4DD3A4-C101-4664-AF7B-857C929CC2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC6E68-9CB3-4809-9AC6-62B837532947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89E41B4D-4BAE-4C7B-A1B0-15AADD6E87DB}"/>
   </bookViews>
@@ -117,3468 +117,27 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3544097754364199E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.87145542966172374"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.12365648912191878"/>
+          <c:y val="6.5231481481481501E-2"/>
+          <c:w val="0.8296951033179869"/>
+          <c:h val="0.76255431612715063"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>This work</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$562</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="560"/>
-                <c:pt idx="0">
-                  <c:v>111.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>184.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>231.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>261.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>272.64999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>268.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>312.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>275.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>318.64999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>293.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>314.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>315.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>317.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>301.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>309.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>309.45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>310.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>322.45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>310.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>330.85</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>334.35</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>346.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>356.65</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>358.15</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>344.45</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>354.15</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>357.65</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>341.95</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>314.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>328.75</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>349.25</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>346.45</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>356.15</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>357.15</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>365.15</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>368.35</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>375.65</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>372.85</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>380.35</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>385.15</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>378.15</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>362.65</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>369.15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>398.15</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>413.65</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>366.25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>378.45</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>389.65</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>361.15</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>385.65</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>365.15</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>366.35</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>401.15</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>423.95</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>387.45</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>388.65</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>410.15</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>379.95</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>374.55</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>378.05</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>381.45</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>389.65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>373.95</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>378.95</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>377.15</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>377.15</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>378.65</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>380.05</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>382.15</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>435.15</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>382.65</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>360.65</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>383.65</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>384.75</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>385.15</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>385.35</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>385.65</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>394.95</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>383.45</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>403.75</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>384.15</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>385.95</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>423.95</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>386.35</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>386.45</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>390.85</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>425.15</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>392.45</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>430.25</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>393.15</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>430.65</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>395.75</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>435.05</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>451.15</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>451.45</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>455.15</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>411.15</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>415.15</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>416.15</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>418.15</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>422.15</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>422.65</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>415.65</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>419.15</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>424.65</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>477.15</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>413.15</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>413.15</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>414.15</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>412.15</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>394.35</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>413.15</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>413.65</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>417.95</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>418.15</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>420.15</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>423.15</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>405.15</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>420.05</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>420.65</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>441.15</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>395.35</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>406.15</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>413.35</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>414.65</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>391.15</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>397.15</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>399.65</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>447.15</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>450.15</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>450.15</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>403.85</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>491.05</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>480.15</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>471.15</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>395.45</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>472.15</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>404.55</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>481.15</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>406.75</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>406.95</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>409.85</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>482.15</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>482.15</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>455.15</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>467.85</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>410.85</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>467.85</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>471.85</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>480.75</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>440.15</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>444.65</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>412.25</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>445.15</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>451.15</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>451.15</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>413.65</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>417.85</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>459.15</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>426.65</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>427.15</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>438.65</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>439.15</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>441.15</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>440.15</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>433.15</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>439.15</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>428.15</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>429.05</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>438.15</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>440.15</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>440.65</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>446.15</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>446.15</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>447.15</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>447.65</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>452.15</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>468.15</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>443.65</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>444.15</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>444.15</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>430.15</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>439.15</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>442.15</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>428.65</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>460.45</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>468.95</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>443.85</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>444.65</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>444.45</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>452.45</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>449.15</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>454.05</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>475.15</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>432.45</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>439.25</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>410.55</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>421.05</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>421.55</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>426.25</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>426.95</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>429.35</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>430.15</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>430.25</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>433.45</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>434.75</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>405.85</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>437.75</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>442.65</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>514.25</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>517.85</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>443.15</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>420.15</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>406.05</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>420.75</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>421.45</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>422.05</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>423.95</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>424.15</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>425.95</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>427.25</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>428.85</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>429.15</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>464.15</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>429.25</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>507.15</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>507.15</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>465.15</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>429.65</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>469.75</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>472.15</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>465.15</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>430.95</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>465.45</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>465.65</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>465.75</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>465.85</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>483.15</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>488.15</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>553.15</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>552.15</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>169.45</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>225.55</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>238.75</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>284.05</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>281.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>300.05</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>273.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>285.75</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>266.25</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>266.95</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>282.55</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>307.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>313.98</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>293.25</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>304.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>311.64999999999998</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>300.95</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>299.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>315.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>315.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>317.25</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>318.05</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>322.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>321.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>303.05</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>308.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>309.45</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>310.05</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>309.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>331.05</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>327.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>329.95</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>331.45</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>329.15</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>345.15</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>348.15</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>349.15</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>349.65</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>350.15</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>327.05</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>327.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>329.45</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>331.75</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>335.25</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>337.85</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>340.45</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>340.85</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>343.55</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>333.35</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>336.35</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>353.65</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>358.65</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>338.05</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>363.95</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>338.85</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>348.65</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>348.65</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>356.05</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>331.15</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>342.25</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>343.95</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>344.95</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>353.85</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>351.15</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>364.85</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>351.65</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>390.15</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>375.65</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>332.55</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>338.15</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>338.15</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>339.45</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>370.95</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>346.25</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>372.15</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>375.85</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>346.35</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>346.65</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>376.15</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>349.15</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>379.45</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>383.45</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>388.15</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>351.15</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>388.15</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>353.15</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>365.05</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>372.65</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>374.05</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>376.65</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>391.55</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>351.05</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>353.95</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>366.35</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>345.65</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>349.85</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>350.65</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>353.55</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>353.95</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>354.75</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>356.55</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>357.45</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>362.15</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>362.15</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>362.45</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>364.65</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>370.65</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>352.35</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>353.55</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>359.15</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>362.85</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>361.25</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>357.05</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>357.25</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>358.45</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>359.05</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>359.15</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>359.45</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>395.65</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>396.05</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>359.85</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>360.75</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>396.45</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>398.15</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>398.75</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>361.25</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>412.15</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>362.65</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>365.15</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>378.05</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>367.15</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>389.95</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>387.15</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>392.55</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>368.55</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>392.75</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>393.25</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>394.15</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>394.15</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>394.75</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>396.15</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>397.65</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>399.65</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>396.65</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>402.95</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>404.15</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>405.05</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>368.75</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>369.15</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>422.15</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>379.55</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>363.15</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>372.35</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>383.15</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>386.65</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>387.95</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>382.25</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>382.65</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>385.05</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>388.75</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>388.75</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>390.85</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>364.15</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>391.35</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>390.75</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>390.85</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>406.95</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>391.15</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>408.35</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>408.35</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>409.15</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>409.15</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>409.75</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>391.75</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>410.45</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>411.15</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>411.65</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>413.15</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>413.65</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>413.75</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>413.75</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>416.05</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>419.45</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>411.15</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>414.35</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>415.55</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>416.15</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>416.35</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>417.35</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>398.75</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>418.35</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>433.35</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>433.85</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>434.15</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>434.25</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>434.25</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>435.05</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>435.15</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>435.15</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>435.25</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>435.65</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>436.05</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>439.15</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>445.15</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>428.15</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>421.15</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>429.15</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>430.65</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>431.15</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>431.35</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>431.65</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>432.05</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>432.55</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>432.85</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>433.05</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>433.55</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>433.95</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>425.35</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>433.95</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>535.15</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>434.35</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>425.75</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>435.3</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>466.15</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>466.65</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>469.25</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>480.15</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>488.25</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>469.65</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>476.15</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>476.85</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>436.15</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>436.55</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>436.95</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>441.25</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>441.65</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>437.05</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>437.45</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>438.15</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>438.15</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>439.45</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>430.65</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>538.15</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>436.85</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>438.25</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>539.65</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>543.15</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>438.85</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>531.15</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>460.15</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>461.25</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>531.75</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>462.45</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>469.05</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>541.15</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>513.15</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>481.65</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>453.15</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>486.95</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>511.15</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>497.15</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>520.15</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>490.65</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>188.45</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>249.95</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>278.25</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>273.95</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>276.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>299.45</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>283.45</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>355.35</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>313.25</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>329.25</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>356.65</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>358.15</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>366.65</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>336.55</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>339.55</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>367.15</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>340.25</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>378.65</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>341.05</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>381.15</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>341.95</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>341.85</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>366.75</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>368.85</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>368.95</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>371.15</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>371.55</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>371.65</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>399.45</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>427.95</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>404.75</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>406.25</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>410.75</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>442.65</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>423.95</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>424.85</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>429.15</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>429.75</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>429.85</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>439.65</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>440.25</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>441.05</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>440.15</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>469.15</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>471.15</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>471.65</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>447.25</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>477.35</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>497.15</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>489.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$562</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="560"/>
-                <c:pt idx="0">
-                  <c:v>111.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>184.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>238.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>261.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>272.64999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>284.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>312.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>275.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>309.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>310.05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>314.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>315.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>317.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>310.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>309.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>309.45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>310.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>322.45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>310.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>330.85</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>334.35</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>346.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>356.65</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>358.15</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>344.45</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>354.15</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>357.65</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>341.95</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>328.75</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>346.45</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>356.15</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>357.15</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>365.15</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>368.35</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>365.15</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>372.85</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>380.35</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>385.15</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>378.15</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>362.65</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>369.15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>398.15</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>413.65</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>366.25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>378.45</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>389.65</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>361.15</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>385.65</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>365.15</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>366.35</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>385.65</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>423.95</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>387.45</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>388.65</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>410.15</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>374.55</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>389.65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>373.95</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>378.95</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>377.15</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>378.65</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>378.65</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>372.35</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>382.15</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>430.25</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>395.75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>360.65</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>395.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>395.75</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>391.15</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>388.75</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>395.75</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>394.95</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>393.15</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>406.95</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>393.15</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>393.15</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>423.95</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>385.65</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>386.45</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>393.15</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>425.15</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>394.35</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>430.25</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>393.15</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>430.65</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>395.75</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>435.05</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>451.15</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>451.45</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>455.15</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>411.15</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>415.15</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>423.15</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>418.15</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>422.15</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>411.65</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>415.65</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>419.15</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>424.65</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>477.15</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>413.15</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>413.15</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>414.15</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>412.15</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>394.35</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>413.15</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>413.65</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>417.95</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>413.15</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>411.65</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>423.15</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>405.15</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>420.05</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>420.65</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>441.15</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>395.35</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>406.15</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>413.35</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>414.65</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>391.15</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>397.15</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>399.65</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>450.15</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>452.45</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>450.15</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>403.85</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>491.05</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>480.15</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>464.15</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>395.45</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>472.15</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>406.95</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>481.15</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>406.75</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>406.95</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>413.35</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>507.15</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>482.15</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>455.15</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>472.15</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>410.85</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>467.85</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>471.85</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>480.75</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>440.15</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>444.65</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>413.35</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>445.15</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>451.15</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>451.15</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>413.65</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>417.85</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>459.15</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>426.65</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>433.45</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>438.65</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>441.15</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>441.15</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>444.15</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>433.15</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>439.15</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>428.6</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>428.6</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>444.65</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>440.15</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>440.65</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>446.9</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>446.15</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>446.15</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>446.9</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>452.15</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>468.15</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>443.65</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>444.15</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>444.15</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>430.15</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>433.15</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>442.15</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>448.79999999999899</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>448.79999999999899</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>448.79999999999899</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>443.85</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>444.65</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>452.45</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>452.45</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>449.15</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>454.05</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>475.15</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>432.45</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>439.25</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>422.05</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>421.05</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>421.55</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>426.25</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>426.95</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>430.25</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>430.15</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>430.25</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>433.45</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>434.75</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>397.15</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>439.25</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>442.65</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>514.25</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>517.85</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>443.15</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>420.15</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>406.05</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>420.75</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>421.45</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>422.05</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>423.95</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>424.15</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>425.95</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>427.25</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>428.85</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>429.15</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>464.15</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>430.15</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>480.15</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>507.15</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>465.15</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>429.65</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>469.75</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>472.15</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>466.15</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>430.15</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>465.45</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>465.65</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>465.75</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>465.85</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>483.15</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>488.15</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>553.15</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>552.15</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>188.45</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>225.55</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>238.75</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>284.05</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>281.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>273.95</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>273.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>285.75</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>266.25</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>266.95</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>282.55</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>307.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>313.98</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>293.25</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>304.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>311.64999999999998</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>300.95</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>299.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>315.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>315.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>317.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>318.05</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>322.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>321.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>305.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>305.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>309.45</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>310.05</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>310.05</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>331.05</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>338.05</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>322.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>329.95</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>331.45</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>329.15</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>340.45</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>348.15</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>349.15</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>349.65</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>350.15</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>327.05</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>327.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>329.45</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>331.15</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>335.25</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>340.45</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>340.85</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>343.55</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>333.35</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>331.15</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>353.65</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>358.65</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>338.05</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>364.4</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>338.05</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>348.65</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>348.65</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>358.15</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>331.15</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>342.25</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>343.95</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>344.95</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>353.85</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>351.65</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>364.4</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>351.65</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>390.15</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>375.65</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>332.55</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>338.15</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>338.15</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>339.45</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>370.95</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>346.25</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>372.15</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>364.15</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>346.35</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>346.65</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>366.25</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>349.15</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>379.45</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>372.85</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>388.15</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>351.15</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>388.15</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>349.15</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>368.85</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>368.85</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>374.05</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>376.65</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>391.55</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>351.05</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>353.95</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>366.35</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>351.05</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>349.85</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>350.65</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>353.55</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>353.95</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>362.65</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>356.55</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>357.45</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>362.15</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>362.15</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>362.45</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>362.65</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>370.65</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>352.35</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>353.55</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>359.15</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>357.15</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>361.25</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>357.05</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>357.25</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>358.45</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>359.05</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>359.15</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>359.45</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>395.65</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>396.05</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>359.85</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>357.15</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>396.45</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>398.15</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>398.15</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>361.25</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>412.15</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>362.65</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>365.15</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>385.05</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>367.15</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>389.95</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>387.15</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>392.55</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>368.55</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>394.75</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>395.45</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>394.15</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>394.15</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>394.75</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>396.15</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>395.45</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>399.65</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>399.79999999999899</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>399.79999999999899</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>404.15</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>405.05</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>368.75</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>368.55</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>410.15</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>379.55</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>366.25</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>372.35</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>383.15</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>386.65</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>387.95</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>382.25</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>388.75</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>385.05</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>388.75</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>388.75</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>390.85</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>364.15</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>385.05</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>390.75</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>390.85</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>406.95</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>391.15</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>408.35</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>408.35</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>409.15</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>409.15</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>409.75</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>391.75</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>410.85</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>411.15</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>411.65</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>413.15</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>413.65</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>413.75</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>413.75</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>416.05</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>419.45</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>411.15</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>414.35</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>415.55</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>416.15</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>416.35</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>417.35</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>398.75</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>418.35</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>433.35</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>433.85</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>434.15</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>434.25</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>433.35</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>435.05</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>435.15</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>435.15</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>435.25</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>435.65</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>436.05</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>439.15</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>445.15</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>422.05</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>421.15</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>431.15</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>430.65</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>431.15</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>431.35</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>431.65</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>432.05</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>432.55</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>431.65</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>433.05</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>433.55</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>433.95</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>425.35</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>433.95</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>535.15</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>430.65</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>425.75</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>435.3</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>466.15</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>466.65</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>469.25</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>480.15</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>488.25</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>469.65</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>476.15</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>476.85</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>436.15</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>438.15</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>436.95</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>441.25</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>460.15</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>437.05</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>437.45</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>438.15</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>438.15</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>436.95</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>438.25</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>535.15</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>436.85</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>438.25</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>539.65</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>543.15</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>438.85</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>541.15</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>460.15</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>461.25</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>531.75</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>465.65</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>469.05</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>541.15</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>513.15</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>481.65</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>453.15</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>486.95</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>486.95</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>497.15</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>520.15</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>490.65</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>188.45</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>249.95</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>278.25</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>273.95</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>276.85000000000002</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>299.45</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>283.45</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>310.05</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>329.25</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>356.65</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>358.15</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>366.65</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>336.55</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>340.85</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>367.15</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>340.25</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>366.75</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>341.05</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>381.15</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>341.95</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>366.75</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>368.85</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>368.95</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>371.15</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>371.55</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>371.65</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>399.45</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>427.95</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>404.75</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>410.75</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>410.75</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>442.65</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>423.95</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>424.85</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>424.85</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>429.75</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>423.95</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>439.65</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>440.25</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>441.05</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>440.15</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>477.35</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>471.15</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>471.15</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>477.15</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>477.35</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>497.15</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>489.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FFA1-489A-8030-07522A192D3B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Actual = Prediction</c:v>
+            <c:v>Experiment = Prediction</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -4298,6 +857,3417 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FFA1-489A-8030-07522A192D3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>This work</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$562</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="560"/>
+                <c:pt idx="0">
+                  <c:v>111.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>268.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>318.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>293.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>314.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>317.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>301.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>309.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>309.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>310.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>322.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>310.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>330.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>334.35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>346.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>356.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>358.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>344.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>354.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>357.65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>341.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>314.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>328.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>349.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>346.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>356.15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>357.15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>365.15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>368.35</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>375.65</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>372.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>380.35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>385.15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>378.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>362.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>369.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>398.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>413.65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>366.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>389.65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>361.15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>385.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>365.15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>366.35</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>401.15</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>423.95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>387.45</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>388.65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>410.15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>379.95</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>374.55</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>378.05</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>381.45</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>389.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>373.95</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>378.95</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>377.15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>377.15</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>378.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>380.05</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>382.15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>435.15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>382.65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>360.65</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>383.65</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>384.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>385.15</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>385.35</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>385.65</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>394.95</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>383.45</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>403.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>384.15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>385.95</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>423.95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>386.35</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>386.45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>390.85</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>425.15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>392.45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>430.25</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>393.15</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>430.65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>395.75</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>435.05</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>451.15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>451.45</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>455.15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>411.15</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>415.15</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>416.15</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>418.15</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>422.15</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>422.65</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>415.65</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>419.15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>424.65</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>477.15</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>414.15</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>412.15</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>394.35</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>413.65</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>417.95</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>418.15</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>420.15</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>423.15</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>405.15</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>420.05</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>420.65</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>441.15</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>395.35</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>406.15</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>413.35</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>414.65</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>391.15</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>397.15</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>399.65</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>447.15</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>450.15</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>450.15</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>403.85</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>491.05</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>480.15</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>471.15</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>395.45</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>472.15</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>404.55</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>481.15</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>406.75</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>406.95</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>409.85</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>482.15</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>482.15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>455.15</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>467.85</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>410.85</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>467.85</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>471.85</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>480.75</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>440.15</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>444.65</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>412.25</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>445.15</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>451.15</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>451.15</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>413.65</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>417.85</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>459.15</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>426.65</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>427.15</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>438.65</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>439.15</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>441.15</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>440.15</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>433.15</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>439.15</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>428.15</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>429.05</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>438.15</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>440.15</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>440.65</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>446.15</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>446.15</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>447.15</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>447.65</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>452.15</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>468.15</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>443.65</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>444.15</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>444.15</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>430.15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>439.15</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>442.15</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>428.65</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>460.45</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>468.95</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>443.85</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>444.65</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>444.45</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>452.45</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>449.15</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>454.05</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>475.15</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>432.45</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>439.25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>410.55</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>421.05</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>421.55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>426.25</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>426.95</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>429.35</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>430.15</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>430.25</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>433.45</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>434.75</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>405.85</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>437.75</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>442.65</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>514.25</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>517.85</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>443.15</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>420.15</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>406.05</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>420.75</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>421.45</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>422.05</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>423.95</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>424.15</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>425.95</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>427.25</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>428.85</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>429.15</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>464.15</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>429.25</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>507.15</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>507.15</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>465.15</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>429.65</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>469.75</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>472.15</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>465.15</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>430.95</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>465.45</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>465.65</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>465.75</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>465.85</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>483.15</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>488.15</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>553.15</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>552.15</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>169.45</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>225.55</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>238.75</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>284.05</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>281.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>300.05</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>273.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>285.75</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>266.25</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>266.95</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>282.55</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>307.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>313.98</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>293.25</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>304.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>311.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>300.95</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>299.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>315.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>315.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>317.25</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>318.05</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>322.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>321.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>303.05</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>308.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>309.45</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>310.05</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>309.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>331.05</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>327.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>329.95</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>331.45</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>329.15</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>345.15</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>348.15</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>349.15</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>349.65</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>350.15</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>327.05</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>327.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>329.45</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>331.75</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>335.25</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>337.85</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>340.45</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>340.85</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>343.55</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>333.35</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>336.35</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>353.65</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>358.65</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>338.05</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>363.95</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>338.85</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>348.65</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>348.65</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>356.05</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>331.15</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>342.25</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>343.95</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>344.95</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>353.85</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>351.15</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>364.85</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>351.65</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>390.15</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>375.65</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>332.55</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>338.15</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>338.15</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>339.45</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>370.95</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>346.25</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>372.15</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>375.85</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>346.65</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>376.15</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>349.15</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>379.45</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>383.45</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>388.15</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>351.15</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>388.15</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>353.15</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>365.05</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>372.65</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>374.05</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>376.65</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>391.55</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>351.05</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>353.95</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>366.35</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>345.65</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>349.85</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>350.65</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>353.55</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>353.95</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>354.75</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>356.55</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>357.45</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>362.15</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>362.15</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>362.45</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>364.65</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>370.65</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>352.35</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>353.55</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>359.15</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>362.85</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>361.25</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>357.05</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>357.25</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>358.45</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>359.05</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>359.15</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>359.45</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>395.65</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>396.05</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>359.85</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>360.75</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>396.45</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>398.15</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>398.75</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>361.25</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>412.15</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>362.65</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>365.15</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>378.05</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>367.15</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>389.95</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>387.15</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>392.55</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>368.55</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>392.75</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>393.25</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>394.15</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>394.15</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>394.75</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>396.15</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>397.65</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>399.65</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>396.65</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>402.95</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>404.15</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>405.05</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>368.75</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>369.15</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>422.15</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>379.55</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>363.15</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>372.35</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>383.15</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>386.65</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>387.95</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>382.25</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>382.65</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>385.05</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>388.75</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>388.75</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>390.85</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>364.15</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>391.35</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>390.75</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>390.85</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>406.95</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>391.15</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>408.35</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>408.35</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>409.15</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>409.15</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>409.75</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>391.75</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>410.45</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>411.15</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>411.65</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>413.65</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>413.75</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>413.75</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>416.05</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>419.45</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>411.15</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>414.35</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>415.55</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>416.15</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>416.35</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>417.35</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>398.75</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>418.35</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>433.35</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>433.85</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>434.15</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>434.25</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>434.25</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>435.05</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>435.15</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>435.15</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>435.25</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>435.65</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>436.05</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>439.15</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>445.15</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>428.15</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>421.15</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>429.15</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>430.65</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>431.15</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>431.35</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>431.65</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>432.05</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>432.55</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>432.85</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>433.05</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>433.55</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>433.95</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>425.35</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>433.95</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>535.15</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>434.35</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>425.75</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>435.3</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>466.15</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>466.65</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>469.25</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>480.15</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>488.25</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>469.65</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>476.15</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>476.85</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>436.15</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>436.55</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>436.95</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>441.25</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>441.65</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>437.05</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>437.45</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>438.15</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>438.15</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>439.45</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>430.65</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>538.15</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>436.85</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>438.25</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>539.65</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>543.15</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>438.85</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>531.15</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>460.15</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>461.25</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>531.75</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>462.45</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>469.05</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>541.15</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>513.15</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>481.65</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>453.15</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>486.95</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>511.15</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>497.15</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>520.15</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>490.65</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>188.45</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>249.95</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>278.25</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>273.95</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>276.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>299.45</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>283.45</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>355.35</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>313.25</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>329.25</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>356.65</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>358.15</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>366.65</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>336.55</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>339.55</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>367.15</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>340.25</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>378.65</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>341.05</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>381.15</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>341.95</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>341.85</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>366.75</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>368.85</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>368.95</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>371.15</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>371.55</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>371.65</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>399.45</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>427.95</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>404.75</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>406.25</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>410.75</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>442.65</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>423.95</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>424.85</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>429.15</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>429.75</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>429.85</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>439.65</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>440.25</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>441.05</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>440.15</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>469.15</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>471.15</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>471.65</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>447.25</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>477.35</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>497.15</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>489.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$562</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="560"/>
+                <c:pt idx="0">
+                  <c:v>111.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>309.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>310.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>314.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>317.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>310.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>309.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>309.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>310.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>322.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>310.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>330.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>334.35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>346.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>356.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>358.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>344.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>354.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>357.65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>341.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>328.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>346.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>356.15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>357.15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>365.15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>368.35</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>365.15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>372.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>380.35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>385.15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>378.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>362.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>369.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>398.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>413.65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>366.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>378.45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>389.65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>361.15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>385.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>365.15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>366.35</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>385.65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>423.95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>387.45</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>388.65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>410.15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>374.55</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>389.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>373.95</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>378.95</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>377.15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>378.65</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>378.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>372.35</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>382.15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>430.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>395.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>360.65</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>395.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>395.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>391.15</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>388.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>395.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>394.95</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>393.15</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>406.95</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>393.15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>393.15</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>423.95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>385.65</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>386.45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>393.15</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>425.15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>394.35</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>430.25</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>393.15</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>430.65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>395.75</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>435.05</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>451.15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>451.45</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>455.15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>411.15</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>415.15</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>423.15</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>418.15</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>422.15</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>411.65</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>415.65</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>419.15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>424.65</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>477.15</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>414.15</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>412.15</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>394.35</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>413.65</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>417.95</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>411.65</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>423.15</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>405.15</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>420.05</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>420.65</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>441.15</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>395.35</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>406.15</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>413.35</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>414.65</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>391.15</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>397.15</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>399.65</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>450.15</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>452.45</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>450.15</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>403.85</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>491.05</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>480.15</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>464.15</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>395.45</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>472.15</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>406.95</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>481.15</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>406.75</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>406.95</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>413.35</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>507.15</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>482.15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>455.15</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>472.15</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>410.85</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>467.85</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>471.85</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>480.75</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>440.15</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>444.65</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>413.35</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>445.15</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>451.15</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>451.15</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>413.65</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>417.85</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>459.15</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>426.65</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>433.45</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>438.65</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>441.15</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>441.15</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>444.15</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>433.15</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>439.15</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>428.6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>428.6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>444.65</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>440.15</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>440.65</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>446.9</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>446.15</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>446.15</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>446.9</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>452.15</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>468.15</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>443.65</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>444.15</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>444.15</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>430.15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>433.15</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>442.15</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>448.79999999999899</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>448.79999999999899</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>448.79999999999899</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>443.85</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>444.65</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>452.45</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>452.45</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>449.15</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>454.05</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>475.15</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>432.45</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>439.25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>422.05</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>421.05</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>421.55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>426.25</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>426.95</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>430.25</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>430.15</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>430.25</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>433.45</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>434.75</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>397.15</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>439.25</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>442.65</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>514.25</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>517.85</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>443.15</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>420.15</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>406.05</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>420.75</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>421.45</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>422.05</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>423.95</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>424.15</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>425.95</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>427.25</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>428.85</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>429.15</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>464.15</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>430.15</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>480.15</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>507.15</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>465.15</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>429.65</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>469.75</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>472.15</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>466.15</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>430.15</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>465.45</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>465.65</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>465.75</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>465.85</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>483.15</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>488.15</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>553.15</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>552.15</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>188.45</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>225.55</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>238.75</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>284.05</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>281.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>273.95</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>273.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>285.75</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>266.25</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>266.95</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>282.55</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>307.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>313.98</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>293.25</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>304.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>311.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>300.95</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>299.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>315.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>315.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>317.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>318.05</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>322.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>321.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>305.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>305.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>309.45</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>310.05</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>310.05</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>331.05</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>338.05</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>322.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>329.95</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>331.45</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>329.15</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>340.45</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>348.15</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>349.15</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>349.65</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>350.15</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>327.05</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>327.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>329.45</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>331.15</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>335.25</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>340.45</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>340.85</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>343.55</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>333.35</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>331.15</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>353.65</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>358.65</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>338.05</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>364.4</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>338.05</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>348.65</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>348.65</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>358.15</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>331.15</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>342.25</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>343.95</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>344.95</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>353.85</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>351.65</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>364.4</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>351.65</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>390.15</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>375.65</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>332.55</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>338.15</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>338.15</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>339.45</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>370.95</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>346.25</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>372.15</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>364.15</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>346.65</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>366.25</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>349.15</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>379.45</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>372.85</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>388.15</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>351.15</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>388.15</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>349.15</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>368.85</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>368.85</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>374.05</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>376.65</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>391.55</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>351.05</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>353.95</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>366.35</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>351.05</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>349.85</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>350.65</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>353.55</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>353.95</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>362.65</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>356.55</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>357.45</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>362.15</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>362.15</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>362.45</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>362.65</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>370.65</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>352.35</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>353.55</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>359.15</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>357.15</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>361.25</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>357.05</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>357.25</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>358.45</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>359.05</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>359.15</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>359.45</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>395.65</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>396.05</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>359.85</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>357.15</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>396.45</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>398.15</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>398.15</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>361.25</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>412.15</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>362.65</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>365.15</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>385.05</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>367.15</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>389.95</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>387.15</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>392.55</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>368.55</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>394.75</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>395.45</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>394.15</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>394.15</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>394.75</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>396.15</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>395.45</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>399.65</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>399.79999999999899</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>399.79999999999899</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>404.15</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>405.05</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>368.75</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>368.55</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>410.15</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>379.55</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>366.25</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>372.35</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>383.15</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>386.65</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>387.95</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>382.25</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>388.75</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>385.05</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>388.75</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>388.75</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>390.85</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>364.15</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>385.05</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>390.75</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>390.85</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>406.95</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>391.15</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>408.35</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>408.35</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>409.15</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>409.15</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>409.75</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>391.75</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>410.85</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>411.15</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>411.65</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>413.65</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>413.75</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>413.75</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>416.05</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>419.45</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>411.15</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>414.35</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>415.55</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>416.15</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>416.35</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>417.35</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>398.75</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>418.35</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>433.35</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>433.85</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>434.15</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>434.25</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>433.35</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>435.05</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>435.15</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>435.15</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>435.25</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>435.65</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>436.05</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>439.15</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>445.15</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>422.05</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>421.15</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>431.15</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>430.65</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>431.15</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>431.35</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>431.65</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>432.05</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>432.55</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>431.65</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>433.05</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>433.55</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>433.95</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>425.35</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>433.95</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>535.15</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>430.65</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>425.75</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>435.3</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>466.15</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>466.65</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>469.25</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>480.15</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>488.25</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>469.65</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>476.15</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>476.85</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>436.15</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>438.15</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>436.95</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>441.25</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>460.15</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>437.05</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>437.45</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>438.15</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>438.15</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>436.95</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>438.25</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>535.15</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>436.85</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>438.25</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>539.65</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>543.15</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>438.85</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>541.15</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>460.15</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>461.25</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>531.75</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>465.65</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>469.05</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>541.15</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>513.15</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>481.65</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>453.15</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>486.95</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>486.95</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>497.15</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>520.15</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>490.65</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>188.45</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>249.95</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>278.25</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>273.95</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>276.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>299.45</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>283.45</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>310.05</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>329.25</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>356.65</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>358.15</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>366.65</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>336.55</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>340.85</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>367.15</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>340.25</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>366.75</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>341.05</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>381.15</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>341.95</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>366.75</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>368.85</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>368.95</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>371.15</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>371.55</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>371.65</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>399.45</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>427.95</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>404.75</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>410.75</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>410.75</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>442.65</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>423.95</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>424.85</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>424.85</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>429.75</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>423.95</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>439.65</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>440.25</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>441.05</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>440.15</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>477.35</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>471.15</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>471.15</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>477.15</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>477.35</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>497.15</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>489.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFA1-489A-8030-07522A192D3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7741,6 +7711,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Experiment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Tb (K)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7800,6 +7830,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Prediction Tb (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7849,6 +7941,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59879318032453388"/>
+          <c:y val="0.53095982793817442"/>
+          <c:w val="0.32879435092997367"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8792,7 +8925,7 @@
   <dimension ref="B1:F562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
